--- a/MainTop/16.10.2024/таня_озон_sorted.xlsx
+++ b/MainTop/16.10.2024/таня_озон_sorted.xlsx
@@ -354,12 +354,13 @@
   <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/MainTop/16.10.2024/таня_озон_sorted.xlsx
+++ b/MainTop/16.10.2024/таня_озон_sorted.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="71">
   <si>
     <t xml:space="preserve">Артикул</t>
   </si>
@@ -351,19 +351,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I58"/>
+  <dimension ref="A1:J59"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.67"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -391,8 +391,11 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>9</v>
       </c>
@@ -420,8 +423,12 @@
       <c r="I2" s="0" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J2" s="0" t="n">
+        <f aca="false">G2/4</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>12</v>
       </c>
@@ -449,8 +456,12 @@
       <c r="I3" s="0" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J3" s="0" t="n">
+        <f aca="false">G3/4</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>13</v>
       </c>
@@ -478,8 +489,12 @@
       <c r="I4" s="0" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J4" s="0" t="n">
+        <f aca="false">G4/4</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>14</v>
       </c>
@@ -507,8 +522,12 @@
       <c r="I5" s="0" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J5" s="0" t="n">
+        <f aca="false">G5/4</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>15</v>
       </c>
@@ -536,8 +555,12 @@
       <c r="I6" s="0" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J6" s="0" t="n">
+        <f aca="false">G6/4</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>17</v>
       </c>
@@ -565,8 +588,12 @@
       <c r="I7" s="0" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J7" s="0" t="n">
+        <f aca="false">G7/4</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>18</v>
       </c>
@@ -594,8 +621,12 @@
       <c r="I8" s="0" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J8" s="0" t="n">
+        <f aca="false">G8/4</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>19</v>
       </c>
@@ -623,8 +654,12 @@
       <c r="I9" s="0" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J9" s="0" t="n">
+        <f aca="false">G9/4</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>20</v>
       </c>
@@ -652,8 +687,12 @@
       <c r="I10" s="0" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J10" s="0" t="n">
+        <f aca="false">G10/4</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>21</v>
       </c>
@@ -681,8 +720,12 @@
       <c r="I11" s="0" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J11" s="0" t="n">
+        <f aca="false">G11/4</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>22</v>
       </c>
@@ -710,8 +753,12 @@
       <c r="I12" s="0" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J12" s="0" t="n">
+        <f aca="false">G12/4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>23</v>
       </c>
@@ -739,8 +786,12 @@
       <c r="I13" s="0" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J13" s="0" t="n">
+        <f aca="false">G13/4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>24</v>
       </c>
@@ -768,8 +819,12 @@
       <c r="I14" s="0" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J14" s="0" t="n">
+        <f aca="false">G14/4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>26</v>
       </c>
@@ -797,8 +852,12 @@
       <c r="I15" s="0" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J15" s="0" t="n">
+        <f aca="false">G15/4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>27</v>
       </c>
@@ -826,8 +885,12 @@
       <c r="I16" s="0" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J16" s="0" t="n">
+        <f aca="false">G16/4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>28</v>
       </c>
@@ -855,8 +918,12 @@
       <c r="I17" s="0" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J17" s="0" t="n">
+        <f aca="false">G17/4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>29</v>
       </c>
@@ -884,8 +951,12 @@
       <c r="I18" s="0" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J18" s="0" t="n">
+        <f aca="false">G18/4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>30</v>
       </c>
@@ -913,8 +984,12 @@
       <c r="I19" s="0" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J19" s="0" t="n">
+        <f aca="false">G19/4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>31</v>
       </c>
@@ -942,8 +1017,12 @@
       <c r="I20" s="0" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J20" s="0" t="n">
+        <f aca="false">G20/4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>32</v>
       </c>
@@ -971,8 +1050,12 @@
       <c r="I21" s="0" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J21" s="0" t="n">
+        <f aca="false">G21/4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>33</v>
       </c>
@@ -1000,8 +1083,12 @@
       <c r="I22" s="0" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J22" s="0" t="n">
+        <f aca="false">G22/4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>34</v>
       </c>
@@ -1029,8 +1116,12 @@
       <c r="I23" s="0" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J23" s="0" t="n">
+        <f aca="false">G23/4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>35</v>
       </c>
@@ -1058,8 +1149,12 @@
       <c r="I24" s="0" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J24" s="0" t="n">
+        <f aca="false">G24/4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>36</v>
       </c>
@@ -1087,8 +1182,12 @@
       <c r="I25" s="0" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J25" s="0" t="n">
+        <f aca="false">G25/4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>37</v>
       </c>
@@ -1116,8 +1215,12 @@
       <c r="I26" s="0" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J26" s="0" t="n">
+        <f aca="false">G26/4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>38</v>
       </c>
@@ -1145,8 +1248,12 @@
       <c r="I27" s="0" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J27" s="0" t="n">
+        <f aca="false">G27/4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
         <v>39</v>
       </c>
@@ -1174,8 +1281,12 @@
       <c r="I28" s="0" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J28" s="0" t="n">
+        <f aca="false">G28/4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>40</v>
       </c>
@@ -1203,8 +1314,12 @@
       <c r="I29" s="0" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J29" s="0" t="n">
+        <f aca="false">G29/4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>41</v>
       </c>
@@ -1232,8 +1347,12 @@
       <c r="I30" s="0" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J30" s="0" t="n">
+        <f aca="false">G30/4</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
         <v>43</v>
       </c>
@@ -1261,8 +1380,12 @@
       <c r="I31" s="0" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J31" s="0" t="n">
+        <f aca="false">G31/4</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>44</v>
       </c>
@@ -1290,8 +1413,12 @@
       <c r="I32" s="0" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J32" s="0" t="n">
+        <f aca="false">G32/4</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
         <v>45</v>
       </c>
@@ -1319,8 +1446,12 @@
       <c r="I33" s="0" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J33" s="0" t="n">
+        <f aca="false">G33/4</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
         <v>46</v>
       </c>
@@ -1348,8 +1479,12 @@
       <c r="I34" s="0" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J34" s="0" t="n">
+        <f aca="false">G34/4</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>47</v>
       </c>
@@ -1377,8 +1512,12 @@
       <c r="I35" s="0" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J35" s="0" t="n">
+        <f aca="false">G35/4</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>48</v>
       </c>
@@ -1406,8 +1545,12 @@
       <c r="I36" s="0" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J36" s="0" t="n">
+        <f aca="false">G36/4</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
         <v>49</v>
       </c>
@@ -1435,8 +1578,12 @@
       <c r="I37" s="0" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J37" s="0" t="n">
+        <f aca="false">G37/4</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
         <v>50</v>
       </c>
@@ -1464,8 +1611,12 @@
       <c r="I38" s="0" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J38" s="0" t="n">
+        <f aca="false">G38/4</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
         <v>51</v>
       </c>
@@ -1493,8 +1644,12 @@
       <c r="I39" s="0" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J39" s="0" t="n">
+        <f aca="false">G39/4</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
         <v>52</v>
       </c>
@@ -1522,8 +1677,12 @@
       <c r="I40" s="0" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J40" s="0" t="n">
+        <f aca="false">G40/4</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
         <v>53</v>
       </c>
@@ -1551,8 +1710,12 @@
       <c r="I41" s="0" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J41" s="0" t="n">
+        <f aca="false">G41/4</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
         <v>54</v>
       </c>
@@ -1580,8 +1743,12 @@
       <c r="I42" s="0" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J42" s="0" t="n">
+        <f aca="false">G42/4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
         <v>55</v>
       </c>
@@ -1609,8 +1776,12 @@
       <c r="I43" s="0" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J43" s="0" t="n">
+        <f aca="false">G43/4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
         <v>56</v>
       </c>
@@ -1638,8 +1809,12 @@
       <c r="I44" s="0" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J44" s="0" t="n">
+        <f aca="false">G44/4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
         <v>57</v>
       </c>
@@ -1667,8 +1842,12 @@
       <c r="I45" s="0" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J45" s="0" t="n">
+        <f aca="false">G45/4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
         <v>58</v>
       </c>
@@ -1696,8 +1875,12 @@
       <c r="I46" s="0" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J46" s="0" t="n">
+        <f aca="false">G46/4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
         <v>59</v>
       </c>
@@ -1725,8 +1908,12 @@
       <c r="I47" s="0" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J47" s="0" t="n">
+        <f aca="false">G47/4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
         <v>60</v>
       </c>
@@ -1754,8 +1941,12 @@
       <c r="I48" s="0" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J48" s="0" t="n">
+        <f aca="false">G48/4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
         <v>61</v>
       </c>
@@ -1783,8 +1974,12 @@
       <c r="I49" s="0" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J49" s="0" t="n">
+        <f aca="false">G49/4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
         <v>62</v>
       </c>
@@ -1812,8 +2007,12 @@
       <c r="I50" s="0" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J50" s="0" t="n">
+        <f aca="false">G50/4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
         <v>63</v>
       </c>
@@ -1841,8 +2040,12 @@
       <c r="I51" s="0" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J51" s="0" t="n">
+        <f aca="false">G51/4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
         <v>64</v>
       </c>
@@ -1870,8 +2073,12 @@
       <c r="I52" s="0" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J52" s="0" t="n">
+        <f aca="false">G52/4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
         <v>65</v>
       </c>
@@ -1899,8 +2106,12 @@
       <c r="I53" s="0" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J53" s="0" t="n">
+        <f aca="false">G53/4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
         <v>66</v>
       </c>
@@ -1928,8 +2139,12 @@
       <c r="I54" s="0" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J54" s="0" t="n">
+        <f aca="false">G54/4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
         <v>67</v>
       </c>
@@ -1957,8 +2172,12 @@
       <c r="I55" s="0" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J55" s="0" t="n">
+        <f aca="false">G55/4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
         <v>68</v>
       </c>
@@ -1986,8 +2205,12 @@
       <c r="I56" s="0" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J56" s="0" t="n">
+        <f aca="false">G56/4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
         <v>69</v>
       </c>
@@ -2014,6 +2237,10 @@
       </c>
       <c r="I57" s="0" t="s">
         <v>42</v>
+      </c>
+      <c r="J57" s="0" t="n">
+        <f aca="false">G57/4</f>
+        <v>1</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2044,7 +2271,12 @@
       <c r="I58" s="0" t="s">
         <v>42</v>
       </c>
-    </row>
+      <c r="J58" s="0" t="n">
+        <f aca="false">G58/4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
